--- a/ope.ed.gov/2009/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2009.xlsx
+++ b/ope.ed.gov/2009/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2009.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Public_Proper" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-public-proper" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1519,52 +1516,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2009.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>501.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1575,13 +1614,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>501.0</v>
@@ -1608,7 +1647,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O3">
         <v>0.0</v>
@@ -1622,13 +1661,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>501.0</v>
@@ -1649,13 +1688,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M4">
         <v>0.0</v>
       </c>
       <c s="1" r="N4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O4">
         <v>0.0</v>
@@ -1666,19 +1705,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>501.0</v>
+        <v>827.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1696,7 +1735,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M5">
         <v>0.0</v>
@@ -1716,13 +1755,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>827.0</v>
@@ -1760,19 +1799,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>827.0</v>
+        <v>6691.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1810,13 +1849,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>6691.0</v>
@@ -1857,13 +1896,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>6691.0</v>
@@ -1904,13 +1943,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>6691.0</v>
@@ -1951,13 +1990,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>6691.0</v>
@@ -1998,13 +2037,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>6691.0</v>
@@ -2045,13 +2084,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>6691.0</v>
@@ -2092,13 +2131,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>6691.0</v>
@@ -2139,13 +2178,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
         <v>6691.0</v>
@@ -2186,13 +2225,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>6691.0</v>
@@ -2233,13 +2272,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>6691.0</v>
@@ -2280,13 +2319,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>6691.0</v>
@@ -2324,19 +2363,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>6691.0</v>
+        <v>334.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2371,19 +2410,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B20">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>334.0</v>
+        <v>1242.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2418,19 +2457,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B21">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>1242.0</v>
+        <v>917.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2454,7 +2493,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O21">
         <v>0.0</v>
@@ -2465,19 +2504,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>917.0</v>
+        <v>1784.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2515,13 +2554,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
         <v>1784.0</v>
@@ -2548,7 +2587,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N23">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O23">
         <v>0.0</v>
@@ -2562,13 +2601,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
         <v>1784.0</v>
@@ -2609,13 +2648,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
         <v>1784.0</v>
@@ -2636,13 +2675,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M25">
         <v>0.0</v>
       </c>
       <c s="1" r="N25">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O25">
         <v>0.0</v>
@@ -2653,19 +2692,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B26">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>1784.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2683,13 +2722,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M26">
         <v>0.0</v>
       </c>
       <c s="1" r="N26">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O26">
         <v>0.0</v>
@@ -2700,19 +2739,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B27">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>21.0</v>
+        <v>247.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2730,7 +2769,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M27">
         <v>0.0</v>
@@ -2747,19 +2786,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B28">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>247.0</v>
+        <v>187.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2777,7 +2816,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M28">
         <v>0.0</v>
@@ -2794,19 +2833,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B29">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>187.0</v>
+        <v>111.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2841,19 +2880,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B30">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>111.0</v>
+        <v>90.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2888,19 +2927,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>90.0</v>
+        <v>4883.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2935,19 +2974,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>4883.0</v>
+        <v>753.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2982,19 +3021,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B33">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>753.0</v>
+        <v>334.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -3029,19 +3068,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>334.0</v>
+        <v>41.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3076,19 +3115,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>41.0</v>
+        <v>1590.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3123,19 +3162,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>1590.0</v>
+        <v>730.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3159,7 +3198,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N36">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O36">
         <v>0.0</v>
@@ -3170,19 +3209,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>730.0</v>
+        <v>752.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3206,7 +3245,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N37">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O37">
         <v>0.0</v>
@@ -3217,19 +3256,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>752.0</v>
+        <v>329.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3264,19 +3303,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B39">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>329.0</v>
+        <v>53.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3300,7 +3339,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O39">
         <v>0.0</v>
@@ -3311,19 +3350,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>53.0</v>
+        <v>5420.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3347,7 +3386,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -3361,13 +3400,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>5420.0</v>
@@ -3408,13 +3447,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>5420.0</v>
@@ -3455,13 +3494,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>5420.0</v>
@@ -3502,13 +3541,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>5420.0</v>
@@ -3546,19 +3585,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>5420.0</v>
+        <v>80.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3593,19 +3632,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>80.0</v>
+        <v>212.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3640,19 +3679,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>212.0</v>
+        <v>250.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3687,19 +3726,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>250.0</v>
+        <v>380.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3734,19 +3773,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>380.0</v>
+        <v>290.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3781,19 +3820,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>290.0</v>
+        <v>200.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3828,19 +3867,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>200.0</v>
+        <v>1639.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3875,19 +3914,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1639.0</v>
+        <v>174.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3922,19 +3961,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>174.0</v>
+        <v>4952.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3949,19 +3988,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M53">
         <v>0.0</v>
       </c>
       <c s="1" r="N53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -3969,19 +4008,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B54">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>4952.0</v>
+        <v>7874.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -3999,16 +4038,16 @@
         <v>1.0</v>
       </c>
       <c s="1" r="L54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M54">
         <v>0.0</v>
       </c>
       <c s="1" r="N54">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -4016,19 +4055,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231624.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>7874.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -4043,7 +4082,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L55">
         <v>0.0</v>
@@ -4063,19 +4102,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B56">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>18.0</v>
+        <v>1582.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -4110,19 +4149,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B57">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>1582.0</v>
+        <v>4387.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -4157,19 +4196,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B58">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>4387.0</v>
+        <v>95.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -4204,19 +4243,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B59">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>95.0</v>
+        <v>1233.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4231,7 +4270,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K59">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L59">
         <v>0.0</v>
@@ -4240,7 +4279,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N59">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O59">
         <v>0.0</v>
@@ -4254,13 +4293,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
         <v>1233.0</v>
@@ -4278,7 +4317,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K60">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L60">
         <v>0.0</v>
@@ -4287,7 +4326,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N60">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O60">
         <v>0.0</v>
@@ -4301,13 +4340,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
         <v>1233.0</v>
@@ -4345,19 +4384,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B62">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>1233.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -4392,19 +4431,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B63">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>22.0</v>
+        <v>1525.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4439,19 +4478,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B64">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>1525.0</v>
+        <v>987.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -4486,19 +4525,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B65">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
-        <v>987.0</v>
+        <v>811.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -4533,19 +4572,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B66">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>811.0</v>
+        <v>205.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -4583,13 +4622,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>205.0</v>
@@ -4627,19 +4666,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B68">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>205.0</v>
+        <v>12194.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4657,7 +4696,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L68">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M68">
         <v>0.0</v>
@@ -4677,13 +4716,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
         <v>12194.0</v>
@@ -4704,7 +4743,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L69">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M69">
         <v>0.0</v>
@@ -4724,13 +4763,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
         <v>12194.0</v>
@@ -4771,13 +4810,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
         <v>12194.0</v>
@@ -4818,13 +4857,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
         <v>12194.0</v>
@@ -4865,13 +4904,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
         <v>12194.0</v>
@@ -4912,13 +4951,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
         <v>12194.0</v>
@@ -4959,13 +4998,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
         <v>12194.0</v>
@@ -5006,13 +5045,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
         <v>12194.0</v>
@@ -5053,13 +5092,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
         <v>12194.0</v>
@@ -5100,13 +5139,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
         <v>12194.0</v>
@@ -5147,13 +5186,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
         <v>12194.0</v>
@@ -5174,7 +5213,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L79">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M79">
         <v>0.0</v>
@@ -5194,13 +5233,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>12194.0</v>
@@ -5221,7 +5260,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L80">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M80">
         <v>0.0</v>
@@ -5241,13 +5280,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>12194.0</v>
@@ -5288,13 +5327,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
         <v>12194.0</v>
@@ -5332,19 +5371,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B83">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
-        <v>12194.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -5379,19 +5418,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B84">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
-        <v>739.0</v>
+        <v>1002.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -5426,19 +5465,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
-        <v>1002.0</v>
+        <v>85.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -5473,19 +5512,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B86">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
-        <v>85.0</v>
+        <v>187.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5503,13 +5542,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L86">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="M86">
         <v>0.0</v>
       </c>
       <c s="1" r="N86">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O86">
         <v>0.0</v>
@@ -5520,19 +5559,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B87">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
-        <v>187.0</v>
+        <v>783.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -5550,13 +5589,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L87">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M87">
         <v>0.0</v>
       </c>
       <c s="1" r="N87">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O87">
         <v>0.0</v>
@@ -5567,19 +5606,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B88">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
-        <v>783.0</v>
+        <v>791.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -5597,7 +5636,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L88">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M88">
         <v>0.0</v>
@@ -5614,19 +5653,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B89">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>791.0</v>
+        <v>408.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5661,19 +5700,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B90">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>408.0</v>
+        <v>699.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5708,25 +5747,25 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>699.0</v>
+        <v>1425.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
       </c>
       <c s="1" r="H91">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I91">
         <v>0.0</v>
@@ -5755,25 +5794,25 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>1425.0</v>
+        <v>341.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
       </c>
       <c s="1" r="H92">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I92">
         <v>0.0</v>
@@ -5791,7 +5830,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N92">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O92">
         <v>0.0</v>
@@ -5802,19 +5841,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B93">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
-        <v>341.0</v>
+        <v>357.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -5838,7 +5877,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N93">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O93">
         <v>0.0</v>
@@ -5849,19 +5888,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B94">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>357.0</v>
+        <v>32067.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -5885,10 +5924,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N94">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O94">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
@@ -5896,19 +5935,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>32067.0</v>
+        <v>7035.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -5932,10 +5971,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N95">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O95">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -5946,13 +5985,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
         <v>7035.0</v>
@@ -5993,13 +6032,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
         <v>7035.0</v>
@@ -6037,19 +6076,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B98">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
-        <v>7035.0</v>
+        <v>409.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -6084,19 +6123,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B99">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
-        <v>409.0</v>
+        <v>112.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -6131,19 +6170,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B100">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>112.0</v>
+        <v>1068.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6178,19 +6217,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B101">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>1068.0</v>
+        <v>5402.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6208,7 +6247,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L101">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M101">
         <v>0.0</v>
@@ -6228,13 +6267,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
         <v>5402.0</v>
@@ -6255,7 +6294,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L102">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M102">
         <v>0.0</v>
@@ -6275,13 +6314,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
         <v>5402.0</v>
@@ -6319,19 +6358,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B104">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
-        <v>5402.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -6366,19 +6405,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B105">
-        <v>431266.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
-        <v>47.0</v>
+        <v>382.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -6413,19 +6452,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B106">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>382.0</v>
+        <v>1057.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6460,19 +6499,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>1057.0</v>
+        <v>71.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6507,19 +6546,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B108">
-        <v>445869.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
-        <v>71.0</v>
+        <v>634.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -6554,19 +6593,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B109">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>634.0</v>
+        <v>1134.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -6601,19 +6640,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B110">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>1134.0</v>
+        <v>815.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6648,19 +6687,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B111">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
-        <v>815.0</v>
+        <v>897.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -6695,19 +6734,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B112">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
-        <v>897.0</v>
+        <v>12729.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -6722,7 +6761,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K112">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L112">
         <v>0.0</v>
@@ -6745,13 +6784,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
         <v>12729.0</v>
@@ -6769,7 +6808,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K113">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L113">
         <v>0.0</v>
@@ -6792,13 +6831,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
         <v>12729.0</v>
@@ -6836,19 +6875,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B115">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>12729.0</v>
+        <v>18971.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -6886,13 +6925,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
         <v>18971.0</v>
@@ -6933,13 +6972,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
         <v>18971.0</v>
@@ -6980,13 +7019,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
         <v>18971.0</v>
@@ -7024,19 +7063,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B119">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
-        <v>18971.0</v>
+        <v>1041.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -7071,19 +7110,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B120">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
-        <v>1041.0</v>
+        <v>9692.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -7121,13 +7160,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
         <v>9692.0</v>
@@ -7168,13 +7207,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
         <v>9692.0</v>
@@ -7215,13 +7254,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
         <v>9692.0</v>
@@ -7259,19 +7298,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
-        <v>9692.0</v>
+        <v>46312.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -7286,7 +7325,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K124">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L124">
         <v>0.0</v>
@@ -7306,19 +7345,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B125">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
-        <v>46312.0</v>
+        <v>4832.0</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -7327,13 +7366,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I125">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J125">
         <v>0.0</v>
       </c>
       <c s="1" r="K125">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L125">
         <v>0.0</v>
@@ -7353,19 +7392,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B126">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
-        <v>4832.0</v>
+        <v>6644.0</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
@@ -7374,7 +7413,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I126">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J126">
         <v>0.0</v>
@@ -7403,13 +7442,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
         <v>6644.0</v>
@@ -7450,13 +7489,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
         <v>6644.0</v>
@@ -7494,19 +7533,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B129">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
-        <v>6644.0</v>
+        <v>2589.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7541,19 +7580,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B130">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
-        <v>2589.0</v>
+        <v>205.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -7588,19 +7627,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B131">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
-        <v>205.0</v>
+        <v>1782.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -7635,19 +7674,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>1782.0</v>
+        <v>3480.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7662,10 +7701,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M132">
         <v>0.0</v>
@@ -7682,19 +7721,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>3480.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7709,10 +7748,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M133">
         <v>0.0</v>
@@ -7729,19 +7768,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B134">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
-        <v>131.0</v>
+        <v>1658.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -7779,13 +7818,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
         <v>1658.0</v>
@@ -7826,13 +7865,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
         <v>1658.0</v>
@@ -7870,19 +7909,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B137">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
-        <v>1658.0</v>
+        <v>468.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -7917,19 +7956,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B138">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
-        <v>468.0</v>
+        <v>3383.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -7964,19 +8003,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B139">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>3383.0</v>
+        <v>5229.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -8011,19 +8050,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>5229.0</v>
+        <v>6993.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -8058,19 +8097,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>6993.0</v>
+        <v>46619.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8108,13 +8147,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
         <v>46619.0</v>
@@ -8126,13 +8165,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I142">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J142">
         <v>0.0</v>
       </c>
       <c s="1" r="K142">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L142">
         <v>0.0</v>
@@ -8141,7 +8180,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N142">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O142">
         <v>0.0</v>
@@ -8155,13 +8194,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
         <v>46619.0</v>
@@ -8182,13 +8221,13 @@
         <v>1.0</v>
       </c>
       <c s="1" r="L143">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M143">
         <v>0.0</v>
       </c>
       <c s="1" r="N143">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O143">
         <v>0.0</v>
@@ -8202,13 +8241,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
         <v>46619.0</v>
@@ -8220,16 +8259,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I144">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J144">
         <v>0.0</v>
       </c>
       <c s="1" r="K144">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L144">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M144">
         <v>0.0</v>
@@ -8249,13 +8288,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
         <v>46619.0</v>
@@ -8267,22 +8306,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I145">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J145">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K145">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L145">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M145">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N145">
         <v>2.0</v>
-      </c>
-      <c s="1" r="J145">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K145">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L145">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M145">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N145">
-        <v>0.0</v>
       </c>
       <c s="1" r="O145">
         <v>0.0</v>
@@ -8296,13 +8335,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
         <v>46619.0</v>
@@ -8314,7 +8353,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I146">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J146">
         <v>0.0</v>
@@ -8329,7 +8368,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N146">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O146">
         <v>0.0</v>
@@ -8340,19 +8379,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B147">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
-        <v>46619.0</v>
+        <v>24013.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -8361,22 +8400,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I147">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J147">
         <v>0.0</v>
       </c>
       <c s="1" r="K147">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="L147">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M147">
         <v>0.0</v>
       </c>
       <c s="1" r="N147">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O147">
         <v>0.0</v>
@@ -8387,19 +8426,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B148">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
-        <v>24013.0</v>
+        <v>3501.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -8408,22 +8447,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I148">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J148">
         <v>0.0</v>
       </c>
       <c s="1" r="K148">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L148">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M148">
         <v>0.0</v>
       </c>
       <c s="1" r="N148">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O148">
         <v>0.0</v>
@@ -8434,19 +8473,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F149">
-        <v>3501.0</v>
+        <v>1579.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -8484,13 +8523,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
         <v>1579.0</v>
@@ -8528,19 +8567,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>1579.0</v>
+        <v>5401.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8575,19 +8614,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B152">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
-        <v>5401.0</v>
+        <v>8878.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -8602,7 +8641,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K152">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L152">
         <v>0.0</v>
@@ -8622,19 +8661,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
-        <v>8878.0</v>
+        <v>500.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -8649,10 +8688,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K153">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M153">
         <v>0.0</v>
@@ -8669,19 +8708,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B154">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
-        <v>500.0</v>
+        <v>1246.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -8699,13 +8738,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L154">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M154">
         <v>0.0</v>
       </c>
       <c s="1" r="N154">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O154">
         <v>0.0</v>
@@ -8716,19 +8755,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
-        <v>1246.0</v>
+        <v>3406.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -8746,13 +8785,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L155">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M155">
         <v>0.0</v>
       </c>
       <c s="1" r="N155">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O155">
         <v>0.0</v>
@@ -8766,13 +8805,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
         <v>3406.0</v>
@@ -8810,19 +8849,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>3406.0</v>
+        <v>4656.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8857,19 +8896,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B158">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>4656.0</v>
+        <v>1579.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -8904,19 +8943,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B159">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
-        <v>1579.0</v>
+        <v>655.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -8951,19 +8990,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B160">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
-        <v>655.0</v>
+        <v>243.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -8998,19 +9037,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
-        <v>243.0</v>
+        <v>2044.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -9045,19 +9084,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B162">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
-        <v>2044.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -9092,19 +9131,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B163">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
-        <v>121.0</v>
+        <v>584.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -9139,19 +9178,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
-        <v>584.0</v>
+        <v>750.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -9186,19 +9225,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B165">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>750.0</v>
+        <v>410.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9233,19 +9272,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B166">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>410.0</v>
+        <v>3619.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9280,19 +9319,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>3619.0</v>
+        <v>450.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9327,19 +9366,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B168">
-        <v>261931.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>450.0</v>
+        <v>76.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9374,19 +9413,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B169">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
-        <v>76.0</v>
+        <v>641.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -9395,7 +9434,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I169">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J169">
         <v>0.0</v>
@@ -9421,19 +9460,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>641.0</v>
+        <v>143.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9442,7 +9481,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I170">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J170">
         <v>0.0</v>
@@ -9468,19 +9507,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B171">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
-        <v>143.0</v>
+        <v>6305.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -9515,19 +9554,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>6305.0</v>
+        <v>3855.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9562,19 +9601,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
-        <v>3855.0</v>
+        <v>103.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -9609,19 +9648,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>103.0</v>
+        <v>38.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9656,19 +9695,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>38.0</v>
+        <v>1342.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9703,19 +9742,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B176">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
-        <v>1342.0</v>
+        <v>67.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -9750,19 +9789,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B177">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
-        <v>67.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -9797,19 +9836,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B178">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>12.0</v>
+        <v>756.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -9844,19 +9883,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
-        <v>756.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -9891,19 +9930,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B180">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -9938,19 +9977,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B181">
-        <v>444884.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
-        <v>13.0</v>
+        <v>2151.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -9985,19 +10024,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B182">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
-        <v>2151.0</v>
+        <v>2015.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -10032,19 +10071,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
-        <v>2015.0</v>
+        <v>10606.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -10062,7 +10101,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L183">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M183">
         <v>0.0</v>
@@ -10079,19 +10118,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B184">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
-        <v>10606.0</v>
+        <v>30447.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -10106,10 +10145,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K184">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L184">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M184">
         <v>0.0</v>
@@ -10129,13 +10168,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
         <v>30447.0</v>
@@ -10153,10 +10192,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K185">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L185">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M185">
         <v>0.0</v>
@@ -10176,13 +10215,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
         <v>30447.0</v>
@@ -10223,13 +10262,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
         <v>30447.0</v>
@@ -10270,13 +10309,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
         <v>30447.0</v>
@@ -10294,7 +10333,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K188">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L188">
         <v>0.0</v>
@@ -10317,13 +10356,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
         <v>30447.0</v>
@@ -10341,7 +10380,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K189">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L189">
         <v>0.0</v>
@@ -10361,19 +10400,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
-        <v>30447.0</v>
+        <v>105.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
@@ -10397,10 +10436,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N190">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O190">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="191">
@@ -10408,19 +10447,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B191">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>105.0</v>
+        <v>293.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10447,7 +10486,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="O191">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -10458,13 +10497,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
         <v>293.0</v>
@@ -10491,7 +10530,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O192">
         <v>0.0</v>
@@ -10502,19 +10541,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B193">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>293.0</v>
+        <v>5381.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10532,13 +10571,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L193">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M193">
         <v>0.0</v>
       </c>
       <c s="1" r="N193">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O193">
         <v>0.0</v>
@@ -10549,19 +10588,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B194">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>5381.0</v>
+        <v>526.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10579,13 +10618,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L194">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M194">
         <v>0.0</v>
       </c>
       <c s="1" r="N194">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O194">
         <v>0.0</v>
@@ -10596,19 +10635,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B195">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>526.0</v>
+        <v>311.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10643,19 +10682,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B196">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
-        <v>311.0</v>
+        <v>4344.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -10690,19 +10729,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
-        <v>4344.0</v>
+        <v>68.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -10737,19 +10776,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B198">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>68.0</v>
+        <v>24355.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -10758,13 +10797,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I198">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J198">
         <v>0.0</v>
       </c>
       <c s="1" r="K198">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="L198">
         <v>0.0</v>
@@ -10773,7 +10812,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N198">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O198">
         <v>0.0</v>
@@ -10787,13 +10826,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
         <v>24355.0</v>
@@ -10805,13 +10844,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I199">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J199">
         <v>0.0</v>
       </c>
       <c s="1" r="K199">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L199">
         <v>0.0</v>
@@ -10820,7 +10859,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N199">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O199">
         <v>0.0</v>
@@ -10834,13 +10873,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
         <v>24355.0</v>
@@ -10881,13 +10920,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
         <v>24355.0</v>
@@ -10928,13 +10967,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
         <v>24355.0</v>
@@ -10975,13 +11014,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
         <v>24355.0</v>
@@ -10993,13 +11032,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I203">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J203">
         <v>0.0</v>
       </c>
       <c s="1" r="K203">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="L203">
         <v>0.0</v>
@@ -11019,19 +11058,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B204">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
-        <v>24355.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G204">
         <v>0.0</v>
@@ -11040,13 +11079,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I204">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J204">
         <v>0.0</v>
       </c>
       <c s="1" r="K204">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L204">
         <v>0.0</v>
@@ -11066,19 +11105,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B205">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
-        <v>44.0</v>
+        <v>32172.0</v>
       </c>
       <c s="1" r="G205">
         <v>0.0</v>
@@ -11087,22 +11126,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I205">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J205">
         <v>0.0</v>
       </c>
       <c s="1" r="K205">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="L205">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="M205">
         <v>0.0</v>
       </c>
       <c s="1" r="N205">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="O205">
         <v>0.0</v>
@@ -11116,13 +11155,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
         <v>32172.0</v>
@@ -11134,22 +11173,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I206">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J206">
         <v>0.0</v>
       </c>
       <c s="1" r="K206">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L206">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M206">
         <v>0.0</v>
       </c>
       <c s="1" r="N206">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O206">
         <v>0.0</v>
@@ -11160,19 +11199,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B207">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
-        <v>32172.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
@@ -11187,16 +11226,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K207">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L207">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M207">
         <v>0.0</v>
       </c>
       <c s="1" r="N207">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O207">
         <v>0.0</v>
@@ -11207,19 +11246,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B208">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
-        <v>2875.0</v>
+        <v>577.0</v>
       </c>
       <c s="1" r="G208">
         <v>0.0</v>
@@ -11254,19 +11293,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
-        <v>577.0</v>
+        <v>1500.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -11301,19 +11340,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B210">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
-        <v>1500.0</v>
+        <v>30870.0</v>
       </c>
       <c s="1" r="G210">
         <v>0.0</v>
@@ -11331,7 +11370,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L210">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M210">
         <v>0.0</v>
@@ -11351,13 +11390,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
         <v>30870.0</v>
@@ -11378,7 +11417,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L211">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M211">
         <v>0.0</v>
@@ -11398,13 +11437,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
         <v>30870.0</v>
@@ -11445,13 +11484,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
         <v>30870.0</v>
@@ -11492,13 +11531,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
         <v>30870.0</v>
@@ -11539,13 +11578,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
         <v>30870.0</v>
@@ -11586,13 +11625,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
         <v>30870.0</v>
@@ -11633,13 +11672,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F217">
         <v>30870.0</v>
@@ -11680,13 +11719,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
         <v>30870.0</v>
@@ -11724,19 +11763,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
-        <v>30870.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -11771,19 +11810,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B220">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
-        <v>94.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -11818,19 +11857,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B221">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
-        <v>58.0</v>
+        <v>5366.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -11848,7 +11887,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L221">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M221">
         <v>0.0</v>
@@ -11865,19 +11904,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
-        <v>5366.0</v>
+        <v>1691.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -11895,7 +11934,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L222">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M222">
         <v>0.0</v>
@@ -11912,19 +11951,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B223">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F223">
-        <v>1691.0</v>
+        <v>327.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -11959,19 +11998,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F224">
-        <v>327.0</v>
+        <v>1336.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -12006,19 +12045,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B225">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D225">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F225">
-        <v>1336.0</v>
+        <v>8927.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -12053,19 +12092,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F226">
-        <v>8927.0</v>
+        <v>112.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
@@ -12100,19 +12139,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B227">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F227">
-        <v>112.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
@@ -12147,19 +12186,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B228">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D228">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F228">
-        <v>69.0</v>
+        <v>2153.0</v>
       </c>
       <c s="1" r="G228">
         <v>0.0</v>
@@ -12194,19 +12233,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B229">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D229">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F229">
-        <v>2153.0</v>
+        <v>99.0</v>
       </c>
       <c s="1" r="G229">
         <v>0.0</v>
@@ -12241,19 +12280,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B230">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D230">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F230">
-        <v>99.0</v>
+        <v>473.0</v>
       </c>
       <c s="1" r="G230">
         <v>0.0</v>
@@ -12288,16 +12327,16 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B231">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D231">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F231">
         <v>473.0</v>
@@ -12315,10 +12354,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K231">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L231">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M231">
         <v>0.0</v>
@@ -12335,19 +12374,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B232">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D232">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F232">
-        <v>473.0</v>
+        <v>218.0</v>
       </c>
       <c s="1" r="G232">
         <v>0.0</v>
@@ -12362,10 +12401,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K232">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L232">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M232">
         <v>0.0</v>
@@ -12382,19 +12421,19 @@
         <v>2009.0</v>
       </c>
       <c s="1" r="B233">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D233">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F233">
-        <v>218.0</v>
+        <v>3783.0</v>
       </c>
       <c s="1" r="G233">
         <v>0.0</v>
@@ -12421,53 +12460,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O233">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c s="1" r="A234">
-        <v>2009.0</v>
-      </c>
-      <c s="1" r="B234">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C234">
-        <v>478</v>
-      </c>
-      <c s="1" r="D234">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E234">
-        <v>479</v>
-      </c>
-      <c s="1" r="F234">
-        <v>3783.0</v>
-      </c>
-      <c s="1" r="G234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N234">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O234">
         <v>0.0</v>
       </c>
     </row>
